--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="523">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -473,6 +473,60 @@
     <t xml:space="preserve">Hang out with friends or relatives </t>
   </si>
   <si>
+    <t xml:space="preserve">bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial recovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">breastfeed</t>
   </si>
   <si>
@@ -833,6 +887,81 @@
     <t xml:space="preserve">He/she emigrated</t>
   </si>
   <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
     <t xml:space="preserve">newborn</t>
   </si>
   <si>
@@ -1260,6 +1389,33 @@
   </si>
   <si>
     <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_num_times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days_unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_outcome</t>
   </si>
   <si>
     <t xml:space="preserve">Individual Questionnaire</t>
@@ -1519,7 +1675,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,6 +1710,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1597,7 +1759,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,7 +1804,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,7 +1849,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1737,7 +1903,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1793,7 +1959,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2791,17 +2957,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,73 +3580,73 @@
         <v>149</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>164</v>
@@ -3488,340 +3654,340 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>165</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>208</v>
@@ -3829,62 +3995,62 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>219</v>
@@ -3895,40 +4061,40 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>221</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>226</v>
@@ -3939,813 +4105,813 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>258</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>164</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>319</v>
@@ -4753,131 +4919,131 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C187" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>339</v>
@@ -4885,10 +5051,10 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>341</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>341</v>
@@ -4896,463 +5062,716 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>349</v>
+        <v>120</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>119</v>
+        <v>397</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B232" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C255" s="0" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5372,23 +5791,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5397,39 +5816,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -5554,21 +5973,21 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>64</v>
@@ -5576,7 +5995,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
@@ -5584,18 +6003,18 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>32</v>
@@ -5617,21 +6036,21 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>64</v>
@@ -5639,7 +6058,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>32</v>
@@ -5650,7 +6069,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>64</v>
@@ -5658,7 +6077,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -5666,7 +6085,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>16</v>
@@ -5677,7 +6096,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -5688,7 +6107,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>18</v>
@@ -5762,10 +6181,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -5776,7 +6195,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>32</v>
@@ -5787,233 +6206,236 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="11" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>417</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>417</v>
+        <v>32</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>417</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>424</v>
+      <c r="B50" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>425</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="D59" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="D60" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="0" t="s">
@@ -6021,271 +6443,350 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="D67" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C65" s="11" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="D71" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="D74" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="D75" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69" s="11" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D77" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="C70" s="11" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C71" s="11" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="D79" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="D80" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C74" s="11" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="D82" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D83" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C76" s="11" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C77" s="11" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" s="11" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="D86" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="D87" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D88" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C81" s="11" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="D89" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="D90" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C84" s="11" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C85" s="11" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="D93" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C87" s="11" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6311,7 +6812,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -6319,60 +6820,60 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="A2" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <v>20210124001</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>469</v>
+      <c r="A5" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="534">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1571,6 +1571,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -1593,6 +1608,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1936,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1959,7 +1992,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2963,11 +2996,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,16 +5826,16 @@
   </sheetPr>
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,17 +6839,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,22 +6862,37 @@
       <c r="B1" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="0" t="s">
         <v>85</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B3" s="14" t="n">
         <v>20210124001</v>
@@ -6850,30 +6901,78 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>521</v>
+        <v>526</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="540">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">inputAttributes.step</t>
   </si>
   <si>
+    <t xml:space="preserve">calculation</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -92,6 +95,18 @@
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn')</t>
   </si>
   <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('id_candidate')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
     <t xml:space="preserve">If newborn:</t>
   </si>
   <si>
@@ -179,18 +194,12 @@
     <t xml:space="preserve">(A resident member is a person who intends to live in the household during the following 3 months at least)</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">16a. ExtID</t>
   </si>
   <si>
     <t xml:space="preserve">ABC-123-123</t>
   </si>
   <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
     <t xml:space="preserve">move_from_census_extid_not_possible</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
+  </si>
+  <si>
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
@@ -1322,6 +1334,9 @@
     <t xml:space="preserve">valuesList</t>
   </si>
   <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assigned by household form</t>
   </si>
   <si>
@@ -1335,6 +1350,9 @@
   </si>
   <si>
     <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -1936,7 +1954,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1984,15 +2002,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2005,6 +2023,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,17 +2061,20 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2061,7 +2084,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2078,16 +2101,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2097,15 +2120,15 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2116,32 +2139,31 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2149,18 +2171,16 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2171,10 +2191,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2187,41 +2207,34 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2232,157 +2245,152 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2391,33 +2399,41 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2425,17 +2441,23 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2444,33 +2466,33 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2478,18 +2500,16 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2499,11 +2519,11 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
         <v>59</v>
       </c>
@@ -2516,41 +2536,34 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>30</v>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2562,153 +2575,150 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2718,39 +2728,41 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2760,39 +2772,42 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
-        <v>16</v>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2802,16 +2817,14 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2820,36 +2833,39 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2858,16 +2874,20 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2875,21 +2895,17 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2899,16 +2915,18 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2916,9 +2934,11 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2930,30 +2950,40 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="E46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2961,7 +2991,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2973,6 +3003,103 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2992,2820 +3119,2820 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="C219" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5824,23 +5951,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5849,58 +5977,64 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -5911,261 +6045,261 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>373</v>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>444</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>450</v>
+      </c>
       <c r="B25" s="9" t="s">
-        <v>445</v>
+        <v>286</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,654 +6307,662 @@
         <v>70</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>16</v>
+      <c r="B38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="B39" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>28</v>
+      <c r="B40" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>461</v>
+      </c>
       <c r="B41" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>287</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>16</v>
+      <c r="B48" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>470</v>
+      </c>
       <c r="B49" s="12" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>469</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>88</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>469</v>
+        <v>17</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>333</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>475</v>
+        <v>247</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>476</v>
+        <v>17</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>477</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>322</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="12" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="12" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="12" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>265</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>122</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>378</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>140</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="12" t="s">
-        <v>391</v>
+        <v>516</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>391</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="12" t="s">
-        <v>511</v>
+        <v>395</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>96</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="12" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6841,14 +6983,14 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.46"/>
@@ -6857,42 +6999,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B3" s="14" t="n">
         <v>20210124001</v>
@@ -6901,31 +7043,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -6934,44 +7076,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="543">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
     <t xml:space="preserve">ABC-123-123</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">23a(i). Retrieve ExtID of participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
   </si>
   <si>
     <t xml:space="preserve">not_possible</t>
@@ -2002,12 +2011,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,17 +2073,20 @@
       <c r="L1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2084,7 +2096,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2101,16 +2113,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2120,10 +2132,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2139,11 +2151,11 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -2152,12 +2164,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2172,10 +2184,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2191,12 +2203,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2208,14 +2220,14 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2227,14 +2239,14 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2246,12 +2258,12 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2263,18 +2275,18 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -2290,13 +2302,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2308,18 +2320,18 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -2335,13 +2347,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -2354,18 +2366,18 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1920</v>
@@ -2381,13 +2393,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -2400,18 +2412,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0</v>
@@ -2425,13 +2437,13 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -2444,19 +2456,19 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2467,26 +2479,31 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="M22" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2501,10 +2518,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2520,12 +2537,12 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2537,14 +2554,14 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2556,14 +2573,14 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2575,12 +2592,12 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2592,18 +2609,18 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -2619,13 +2636,13 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2637,18 +2654,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -2664,13 +2681,13 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -2683,18 +2700,18 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1920</v>
@@ -2710,13 +2727,13 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -2729,18 +2746,18 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>0</v>
@@ -2754,13 +2771,13 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -2773,16 +2790,16 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2794,19 +2811,19 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2817,14 +2834,14 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2836,14 +2853,14 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2859,13 +2876,13 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2877,16 +2894,16 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2896,10 +2913,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2915,16 +2932,16 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2934,10 +2951,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2953,34 +2970,39 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
+      <c r="M46" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2991,7 +3013,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3006,7 +3028,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3021,10 +3043,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3040,11 +3062,11 @@
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3053,12 +3075,12 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3073,7 +3095,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3088,7 +3110,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3132,2807 +3154,2807 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="C27" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="C177" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>390</v>
-      </c>
       <c r="C220" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5953,8 +5975,8 @@
   </sheetPr>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5968,7 +5990,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5977,45 +5999,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -6023,946 +6045,946 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>478</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="12" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="12" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="12" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="12" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="12" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6983,8 +7005,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6999,75 +7021,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B3" s="14" t="n">
-        <v>20210124001</v>
+        <v>20210202001</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -7076,44 +7098,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="548">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -98,199 +98,214 @@
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn')</t>
   </si>
   <si>
+    <t xml:space="preserve">If newborn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Given name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Date of birth:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_day_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_month_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
+  </si>
+  <si>
     <t xml:space="preserve">assign</t>
   </si>
   <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15a. If year is not known please add age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age_approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_day_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_month_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Is this participant a resident of the household? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A resident member is a person who intends to live in the household during the following 3 months at least)</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">16a. ExtID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-123-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If someone who moved into the house:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Given name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Date of birth:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19a. If year is not known please add age in years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Is this participant a resident of the household? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. When did this person move into the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or Days/Weeks/Months Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmy_ago_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Where is the person coming from? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_district_census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a. Was this participant registered in the district census a few months ago?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a(i). Retrieve ExtID of participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_census_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned ExtID {{data.id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">data('id_candidate')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If newborn:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Given name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. Date of birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_day_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_month_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15a. If year is not known please add age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. Is this participant a resident of the household? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A resident member is a person who intends to live in the household during the following 3 months at least)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16a. ExtID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC-123-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If someone who moved into the house:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. Given name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. Date of birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19a. If year is not known please add age in years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. Is this participant a resident of the household? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. When did this person move into the household?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or Days/Weeks/Months Ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmy_ago_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. Where is the person coming from? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_district_census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23a. Was this participant registered in the district census a few months ago?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23a(i). Retrieve ExtID of participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_census_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -1963,7 +1978,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -2011,15 +2026,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2032,7 +2047,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -2125,7 +2140,9 @@
         <v>21</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2140,7 +2157,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2151,50 +2168,57 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2206,9 +2230,9 @@
         <v>15</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2219,34 +2243,41 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2257,19 +2288,29 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -2277,44 +2318,45 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
@@ -2322,39 +2364,29 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2365,86 +2397,74 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+      <c r="A20" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2453,63 +2473,41 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="0" t="s">
-        <v>59</v>
+      <c r="L22" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2517,16 +2515,13 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2534,35 +2529,27 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2573,17 +2560,23 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2592,58 +2585,54 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="M28" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>36</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2653,45 +2642,37 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2699,43 +2680,35 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2746,23 +2719,25 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>31</v>
+      </c>
       <c r="K35" s="1" t="n">
         <v>1</v>
       </c>
@@ -2771,15 +2746,14 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>36</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2790,41 +2764,43 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2833,57 +2809,60 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2893,56 +2872,60 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="C42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2950,16 +2933,14 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2967,59 +2948,41 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="0" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>87</v>
+      <c r="C47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
+      <c r="L47" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="A48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3027,14 +2990,13 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="A49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3042,51 +3004,48 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="C50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="A51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3094,34 +3053,369 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="M61" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3145,7 +3439,7 @@
       <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3154,1806 +3448,1806 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,10 +5255,10 @@
         <v>19</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,989 +5266,989 @@
         <v>19</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B218" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="C218" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +6273,7 @@
       <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -5990,7 +6284,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5999,45 +6293,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -6045,266 +6339,266 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -6318,673 +6612,673 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="12" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="12" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="12" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="12" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="12" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="12" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="12" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7005,11 +7299,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -7021,42 +7315,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B3" s="14" t="n">
         <v>20210202001</v>
@@ -7065,31 +7359,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -7098,44 +7392,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="428">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -50,6 +50,12 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">display.prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.hint</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
@@ -74,7 +80,7 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+    <t xml:space="preserve">hh_id_note</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -89,7 +95,7 @@
     <t xml:space="preserve">new_member_newborn_or_moved_in</t>
   </si>
   <si>
-    <t xml:space="preserve">12. Is this person a newborn or someone who moved into the house?</t>
+    <t xml:space="preserve">q12</t>
   </si>
   <si>
     <t xml:space="preserve">if</t>
@@ -98,22 +104,22 @@
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn')</t>
   </si>
   <si>
-    <t xml:space="preserve">If newborn:</t>
+    <t xml:space="preserve">if_newborn</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">13. Given name</t>
+    <t xml:space="preserve">q13</t>
   </si>
   <si>
     <t xml:space="preserve">surname</t>
   </si>
   <si>
-    <t xml:space="preserve">14. Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. Date of birth:</t>
+    <t xml:space="preserve">q14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q15</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -122,7 +128,7 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
-    <t xml:space="preserve">Day</t>
+    <t xml:space="preserve">day</t>
   </si>
   <si>
     <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
@@ -140,7 +146,7 @@
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t xml:space="preserve">month</t>
   </si>
   <si>
     <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
@@ -152,7 +158,7 @@
     <t xml:space="preserve">dob_year</t>
   </si>
   <si>
-    <t xml:space="preserve">Year</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
@@ -173,7 +179,7 @@
     <t xml:space="preserve">dob_enter_age</t>
   </si>
   <si>
-    <t xml:space="preserve">15a. If year is not known please add age</t>
+    <t xml:space="preserve">q15a</t>
   </si>
   <si>
     <t xml:space="preserve">approx</t>
@@ -194,16 +200,16 @@
     <t xml:space="preserve">resident_status</t>
   </si>
   <si>
-    <t xml:space="preserve">16. Is this participant a resident of the household? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A resident member is a person who intends to live in the household during the following 3 months at least)</t>
+    <t xml:space="preserve">q16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q16.hint</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">16a. ExtID</t>
+    <t xml:space="preserve">q16a</t>
   </si>
   <si>
     <t xml:space="preserve">ABC-123-123</t>
@@ -215,28 +221,31 @@
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
   </si>
   <si>
-    <t xml:space="preserve">If someone who moved into the house:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. Given name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. Date of birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19a. If year is not known please add age in years</t>
+    <t xml:space="preserve">if_moved_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q19a</t>
   </si>
   <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
-    <t xml:space="preserve">20. Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. Is this participant a resident of the household? </t>
+    <t xml:space="preserve">q20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21.hint</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -245,13 +254,13 @@
     <t xml:space="preserve">new_member_move_in_date</t>
   </si>
   <si>
-    <t xml:space="preserve">22. When did this person move into the household?</t>
+    <t xml:space="preserve">q22</t>
   </si>
   <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
   </si>
   <si>
-    <t xml:space="preserve">or Days/Weeks/Months Ago</t>
+    <t xml:space="preserve">days_weeks_months_dk</t>
   </si>
   <si>
     <t xml:space="preserve">dmy_ago_dk</t>
@@ -266,7 +275,7 @@
     <t xml:space="preserve">move_from</t>
   </si>
   <si>
-    <t xml:space="preserve">23. Where is the person coming from? </t>
+    <t xml:space="preserve">q23</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
@@ -278,13 +287,13 @@
     <t xml:space="preserve">move_from_district_census</t>
   </si>
   <si>
-    <t xml:space="preserve">23a. Was this participant registered in the district census a few months ago?</t>
+    <t xml:space="preserve">q23a</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
   </si>
   <si>
-    <t xml:space="preserve">23a(i). Retrieve ExtID of participant</t>
+    <t xml:space="preserve">q23ai</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
@@ -299,7 +308,7 @@
     <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
   </si>
   <si>
-    <t xml:space="preserve">Assigned ExtID {{data.id}}</t>
+    <t xml:space="preserve">assign_extid</t>
   </si>
   <si>
     <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
@@ -317,1300 +326,931 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndkpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ynpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking_a_walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">church_mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching_for_a_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_with_friends_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friends_relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_sunrise_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injuries_from_an_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental_health_disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epilepsy_(convulsions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart_problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_of_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family_or_friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal_drug_vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protestant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atheist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptp_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 1 dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 2 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took more than 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_no_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant didn’t have malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not deemed necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_where_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone_new_in_the_household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_recent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery_of_a_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joints_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chills-shivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss_smell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neither_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relation_to_hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husband_wife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sisterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle_aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandson_granddaughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stepchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adopted_son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cousin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nephew_niece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrelated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_awake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h before sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h after sunset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_indoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraceptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antihistamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiretrovirals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_mental_illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-fungal_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_blood_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuesList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned by household form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_died_when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_died_when_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_emigrated_when_dmy_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated_where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Member (New Household)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_hh_member_censed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_num_times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_miss_work_school_days_unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_occur_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake_bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_sign_assent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parent_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parent_sign_who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_under_12_parent_sign_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_under_12_parent_sign_consent_who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_who_respondent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_parents_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_rel_hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_with_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_main_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_chronic_disease_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_recent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_yes_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_symptoms_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_seek_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_care_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent_disease_care_type_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_malaria_treatment_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_tunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_bed_bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wra_iptp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_net_last_night_num_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_go_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_get_out_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_go_outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_do_before_sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_regularly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_regularly_trips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not possible to retrieve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndkpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ynpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking_a_walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking a walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">church_mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Church/mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searching_for_a_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching for a job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out_with_friends_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out with friends/family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tick this box if approximate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain stories  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">friends_relatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spend time with friends or relatives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch TV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listen to the radio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the news </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_sunrise_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetching water  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetching wood </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hang out with friends or relatives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_occur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside the home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside the compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss of limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own child </t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone else’s child/children </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries_from_an_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries from an accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental_health_disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental health disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy_(convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy (convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart_problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month(s) ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_of_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family_or_friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family or friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal_drug_vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal drug vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community_leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted_elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within this district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside this district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protestant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian undetermined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atheist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptp_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 1 dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 2 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took more than 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, on the body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, on the head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than two weeks ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than two weeks ago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_no_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant didn’t have malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not deemed necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_where_now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/she died </t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/she emigrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">january</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">february</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">march</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">june</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">july</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">august</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">september</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">october</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">november</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">december</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someone_new_in_the_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone new in the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_recent_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery_of_a_baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery of a baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vomiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joints_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joints pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dizziness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chills-shivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss_smell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss of smell and/or taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only living mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only living father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neither_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neither are alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relation_to_hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">husband_wife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband/wife of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son/daughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother/sister of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father/mother of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son/daughter in law of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sisterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother/sister in law of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncle_aunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncle/aunt of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandson_granddaughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandson /granddaughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stepchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepchild of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adopted_son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopted son/daughter of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cousin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cousin of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nephew_niece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephew/Niece of household head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrelated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unrelated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non_resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Resident member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_awake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h before sunrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h after sunset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_indoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraceptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antihistamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiretrovirals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibiotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_mental_illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for mental illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-fungal_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-fungal treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_blood_pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment for blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefer not to say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valuesList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSessionVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigned by household form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absent Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_died_when</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_died_when_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_emigrated_when_dmy_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated_where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Member (New Household)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_hh_member_censed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_hh_member_censed_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake Bites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_num_times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_miss_work_school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_miss_work_school_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_miss_work_school_days_unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_occur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_occur_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake_bite_outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual Questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_sign_assent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parent_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parent_sign_who</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_under_12_parent_sign_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_under_12_parent_sign_consent_who</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_who_respondent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_parents_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_rel_hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_with_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_main_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_chronic_disease_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_recent_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_yes_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_symptoms_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_seek_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_care_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent_disease_care_type_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_malaria_treatment_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_deficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_tunga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_bed_bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wra_iptp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep_net_last_night_num_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_go_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_get_out_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_go_outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_do_before_sunrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_abroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_regularly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_regularly_trips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">display.title.text.pt</t>
@@ -1975,10 +1615,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -2026,29 +1666,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="1" sqref="C:C F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,50 +1708,54 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="M1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2123,36 +1767,38 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2163,107 +1809,113 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="n">
+      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,44 +1923,47 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,45 +1971,47 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>1920</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,79 +2019,81 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+        <v>43</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="0" t="s">
-        <v>47</v>
+      <c r="L17" s="1"/>
+      <c r="M17" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="1" t="n">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,174 +2101,172 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+        <v>55</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+        <v>33</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="0" t="s">
-        <v>47</v>
+      <c r="L22" s="1"/>
+      <c r="M22" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+        <v>54</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+        <v>56</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+        <v>39</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="0" t="s">
-        <v>47</v>
+      <c r="L25" s="1"/>
+      <c r="M25" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+        <v>54</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="M28" s="0" t="s">
-        <v>61</v>
+      <c r="L28" s="1"/>
+      <c r="N28" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2621,13 +2278,14 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2638,107 +2296,113 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2" t="s">
-        <v>63</v>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K35" s="1" t="n">
+      <c r="L35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,44 +2410,47 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="K37" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="L37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,45 +2458,47 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="1" t="n">
         <v>1920</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="K39" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="L39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2837,79 +2506,81 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+        <v>43</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="0" t="s">
-        <v>47</v>
+      <c r="L42" s="1"/>
+      <c r="M42" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1" t="n">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2917,203 +2588,200 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+        <v>55</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+        <v>33</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="0" t="s">
-        <v>47</v>
+      <c r="L47" s="1"/>
+      <c r="M47" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+        <v>54</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+        <v>56</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+        <v>39</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="0" t="s">
-        <v>47</v>
+      <c r="L50" s="1"/>
+      <c r="M50" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+        <v>54</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>71</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>78</v>
+      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,144 +2789,146 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>83</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>87</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="F61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="M61" s="0" t="s">
-        <v>87</v>
+      <c r="L61" s="1"/>
+      <c r="N61" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3270,10 +2940,11 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3285,13 +2956,14 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3302,27 +2974,28 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>94</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3334,10 +3007,11 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3349,13 +3023,14 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3366,16 +3041,17 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3383,13 +3059,14 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="0" t="s">
-        <v>93</v>
+      <c r="L70" s="1"/>
+      <c r="M70" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3401,10 +3078,11 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3416,6 +3094,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3435,56 +3114,56 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>102</v>
@@ -3492,21 +3171,21 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>102</v>
@@ -3514,32 +3193,32 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>102</v>
@@ -3547,2708 +3226,2708 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>107</v>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>104</v>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="C17" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>386</v>
+        <v>280</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>408</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>411</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>414</v>
+        <v>304</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>414</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>417</v>
+        <v>307</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>421</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>422</v>
+        <v>310</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>422</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>423</v>
+        <v>311</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>423</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>424</v>
+        <v>312</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>432</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>433</v>
+        <v>317</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>434</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>436</v>
+        <v>318</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>438</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>441</v>
+        <v>105</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6270,10 +5949,10 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="1" sqref="C:C A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6284,7 +5963,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6293,45 +5972,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>446</v>
+        <v>325</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -6339,946 +6018,946 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>451</v>
+        <v>330</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>456</v>
+        <v>335</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>457</v>
+        <v>336</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>458</v>
+        <v>337</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>459</v>
+        <v>338</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>460</v>
+        <v>339</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>462</v>
+        <v>341</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>463</v>
+        <v>342</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>465</v>
+        <v>344</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>467</v>
+        <v>346</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>471</v>
+        <v>350</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>476</v>
+        <v>355</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>478</v>
+        <v>357</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>481</v>
+        <v>360</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>482</v>
+        <v>361</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>485</v>
+        <v>364</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>494</v>
+        <v>373</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>498</v>
+        <v>377</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12" t="s">
-        <v>503</v>
+        <v>382</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="12" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="12" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="12" t="s">
-        <v>506</v>
+        <v>385</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>507</v>
+        <v>386</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
-        <v>509</v>
+        <v>388</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
-        <v>510</v>
+        <v>389</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
-        <v>511</v>
+        <v>390</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>516</v>
+        <v>395</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
-        <v>519</v>
+        <v>398</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="12" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="12" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="12" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="12" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7300,10 +6979,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C:C B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -7315,75 +6994,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>408</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="B3" s="14" t="n">
-        <v>20210202001</v>
+        <v>20210204001</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -7392,44 +7071,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="548">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -50,12 +50,6 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.hint</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
@@ -80,7 +74,7 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">hh_id_note</t>
+    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -95,7 +89,7 @@
     <t xml:space="preserve">new_member_newborn_or_moved_in</t>
   </si>
   <si>
-    <t xml:space="preserve">q12</t>
+    <t xml:space="preserve">12. Is this person a newborn or someone who moved into the house?</t>
   </si>
   <si>
     <t xml:space="preserve">if</t>
@@ -104,22 +98,22 @@
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn')</t>
   </si>
   <si>
-    <t xml:space="preserve">if_newborn</t>
+    <t xml:space="preserve">If newborn:</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">q13</t>
+    <t xml:space="preserve">13. Given name</t>
   </si>
   <si>
     <t xml:space="preserve">surname</t>
   </si>
   <si>
-    <t xml:space="preserve">q14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q15</t>
+    <t xml:space="preserve">14. Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Date of birth:</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -128,7 +122,7 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
-    <t xml:space="preserve">day</t>
+    <t xml:space="preserve">Day</t>
   </si>
   <si>
     <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
@@ -146,621 +140,876 @@
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_month_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15a. If year is not known please add age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_enter_age_approx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_day_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_month_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Is this participant a resident of the household? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A resident member is a person who intends to live in the household during the following 3 months at least)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16a. ExtID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-123-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If someone who moved into the house:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Given name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Date of birth:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19a. If year is not known please add age in years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Is this participant a resident of the household? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. When did this person move into the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or Days/Weeks/Months Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmy_ago_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Where is the person coming from? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_district_census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a. Was this participant registered in the district census a few months ago?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a(i). Retrieve ExtID of participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_census_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned ExtID {{data.id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('id_candidate')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not possible to retrieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndkpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefer not to answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ynpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking_a_walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking a walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">church_mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Church/mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching_for_a_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for a job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_with_friends_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out with friends/family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick this box if approximate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain stories  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">friends_relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spend time with friends or relatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch TV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen to the radio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the news </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_sunrise_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetching water  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetching wood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang out with friends or relatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside the compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own child </t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone else’s child/children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injuries_from_an_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injuries from an accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental_health_disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epilepsy_(convulsions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epilepsy (convulsions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart_problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day(s) ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week(s) ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month(s) ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_of_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family_or_friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family or friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal_drug_vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal drug vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within this district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside this district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protestant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atheist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptp_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 1 dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 2 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took more than 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, on the body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, on the head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than two weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than two weeks ago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_no_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant didn’t have malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not deemed necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_where_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He/she died </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He/she emigrated</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
-    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_month_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_enter_age_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('dob_day_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('dob_month_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q16.hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q16a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC-123-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_moved_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q19a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21.hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_weeks_months_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmy_ago_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_district_census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_census_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign_extid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('id_candidate')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndkpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ynpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking_a_walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">church_mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searching_for_a_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out_with_friends_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friends_relatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_sunrise_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_occur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries_from_an_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental_health_disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy_(convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart_problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_of_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family_or_friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal_drug_vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community_leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted_elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protestant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian undetermined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atheist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptp_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 1 dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 2 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took more than 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_no_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant didn’t have malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not deemed necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_where_now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated</t>
-  </si>
-  <si>
     <t xml:space="preserve">january</t>
   </si>
   <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
     <t xml:space="preserve">february</t>
   </si>
   <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
     <t xml:space="preserve">march</t>
   </si>
   <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
     <t xml:space="preserve">april</t>
   </si>
   <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
     <t xml:space="preserve">may</t>
   </si>
   <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
     <t xml:space="preserve">june</t>
   </si>
   <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
     <t xml:space="preserve">july</t>
   </si>
   <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
     <t xml:space="preserve">august</t>
   </si>
   <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
     <t xml:space="preserve">september</t>
   </si>
   <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
     <t xml:space="preserve">october</t>
   </si>
   <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
     <t xml:space="preserve">november</t>
   </si>
   <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
     <t xml:space="preserve">december</t>
   </si>
   <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
     <t xml:space="preserve">newborn</t>
   </si>
   <si>
+    <t xml:space="preserve">Newborn</t>
+  </si>
+  <si>
     <t xml:space="preserve">someone_new_in_the_household</t>
   </si>
   <si>
+    <t xml:space="preserve">Someone new in the household</t>
+  </si>
+  <si>
     <t xml:space="preserve">other_recent_disease</t>
   </si>
   <si>
@@ -776,6 +1025,9 @@
     <t xml:space="preserve">Delivery_of_a_baby</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery of a baby</t>
+  </si>
+  <si>
     <t xml:space="preserve">other_symptoms</t>
   </si>
   <si>
@@ -788,6 +1040,9 @@
     <t xml:space="preserve">Joints_pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Joints pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dizziness</t>
   </si>
   <si>
@@ -797,81 +1052,150 @@
     <t xml:space="preserve">Loss_smell</t>
   </si>
   <si>
+    <t xml:space="preserve">Loss of smell and/or taste</t>
+  </si>
+  <si>
     <t xml:space="preserve">No_symptoms</t>
   </si>
   <si>
+    <t xml:space="preserve">No symptoms</t>
+  </si>
+  <si>
     <t xml:space="preserve">parents_alive</t>
   </si>
   <si>
     <t xml:space="preserve">both_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Both alive</t>
+  </si>
+  <si>
     <t xml:space="preserve">mother_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Only living mother</t>
+  </si>
+  <si>
     <t xml:space="preserve">father_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Only living father</t>
+  </si>
+  <si>
     <t xml:space="preserve">neither_alive</t>
   </si>
   <si>
+    <t xml:space="preserve">Neither are alive</t>
+  </si>
+  <si>
     <t xml:space="preserve">relation_to_hh_head</t>
   </si>
   <si>
     <t xml:space="preserve">husband_wife</t>
   </si>
   <si>
+    <t xml:space="preserve">Husband/wife of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">son_daughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Son/daughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">brother_sister</t>
   </si>
   <si>
+    <t xml:space="preserve">Brother/sister of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">father_mother</t>
   </si>
   <si>
+    <t xml:space="preserve">Father/mother of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">son_daughterinlaw</t>
   </si>
   <si>
+    <t xml:space="preserve">Son/daughter in law of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">brother_sisterinlaw</t>
   </si>
   <si>
+    <t xml:space="preserve">Brother/sister in law of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">uncle_aunt</t>
   </si>
   <si>
+    <t xml:space="preserve">Uncle/aunt of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">grandson_granddaughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Grandson /granddaughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">stepchild</t>
   </si>
   <si>
+    <t xml:space="preserve">Stepchild of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">adopted_son_daughter</t>
   </si>
   <si>
+    <t xml:space="preserve">Adopted son/daughter of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">cousin</t>
   </si>
   <si>
+    <t xml:space="preserve">Cousin of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">nephew_niece</t>
   </si>
   <si>
+    <t xml:space="preserve">Nephew/Niece of household head</t>
+  </si>
+  <si>
     <t xml:space="preserve">unrelated</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrelated</t>
+  </si>
+  <si>
     <t xml:space="preserve">resident</t>
   </si>
   <si>
+    <t xml:space="preserve">Resident member</t>
+  </si>
+  <si>
     <t xml:space="preserve">non_resident</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-Resident member</t>
+  </si>
+  <si>
     <t xml:space="preserve">return_time</t>
   </si>
   <si>
     <t xml:space="preserve">today</t>
   </si>
   <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
     <t xml:space="preserve">tomorrow</t>
   </si>
   <si>
+    <t xml:space="preserve">Tomorrow</t>
+  </si>
+  <si>
     <t xml:space="preserve">time_awake</t>
   </si>
   <si>
@@ -926,12 +1250,18 @@
     <t xml:space="preserve">CAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
@@ -950,12 +1280,18 @@
     <t xml:space="preserve">Treatment_for_pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contraceptive</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment_for_malaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for malaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antihistamine</t>
   </si>
   <si>
@@ -965,30 +1301,57 @@
     <t xml:space="preserve">Treatment_for_tuberculosis</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for tuberculosis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antibiotic</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment_for_stress</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for stress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_mental_illness</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for mental illness</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anti-fungal_treatment</t>
   </si>
   <si>
+    <t xml:space="preserve">Anti-fungal treatment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_epilepsy</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for epilepsy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_diarrhoea</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for diarrhoea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatment_for_blood_pressure</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment for blood pressure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traditional_medicine</t>
   </si>
   <si>
+    <t xml:space="preserve">Traditional medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefer not to say</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -1248,9 +1611,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">display.title.text.pt</t>
@@ -1615,10 +1975,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1666,29 +2026,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="1" sqref="C:C F2"/>
+      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,54 +2068,50 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1767,38 +2123,36 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1809,113 +2163,107 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1923,47 +2271,44 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,47 +2316,45 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>45</v>
+      <c r="I14" s="1" t="n">
+        <v>1920</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>1920</v>
+        <v>2021</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2019,81 +2362,79 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="0" t="s">
-        <v>49</v>
+      <c r="L17" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="1" t="n">
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="n">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2101,172 +2442,174 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="0" t="s">
-        <v>49</v>
+      <c r="L22" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="0" t="s">
-        <v>49</v>
+      <c r="L25" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="N28" s="0" t="s">
-        <v>63</v>
+      <c r="M28" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2278,14 +2621,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2296,113 +2638,107 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
+      <c r="F31" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
+      <c r="I35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2410,47 +2746,44 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>41</v>
+      <c r="I37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="L37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,47 +2791,45 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>45</v>
+      <c r="I39" s="1" t="n">
+        <v>1920</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>1920</v>
+        <v>2021</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,81 +2837,79 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="0" t="s">
-        <v>49</v>
+      <c r="L42" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1" t="n">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,200 +2917,203 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="0" t="s">
-        <v>49</v>
+      <c r="L47" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="0" t="s">
-        <v>49</v>
+      <c r="L50" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1" t="n">
+      <c r="I55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1" t="n">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,146 +3121,144 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="N61" s="0" t="s">
-        <v>90</v>
+      <c r="M61" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2940,11 +3270,10 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2956,14 +3285,13 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2974,28 +3302,27 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3007,11 +3334,10 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3023,14 +3349,13 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3041,17 +3366,16 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3059,14 +3383,13 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="0" t="s">
-        <v>96</v>
+      <c r="L70" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3078,11 +3401,10 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3094,7 +3416,6 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3114,56 +3435,56 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>102</v>
@@ -3171,21 +3492,21 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>102</v>
@@ -3193,32 +3514,32 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>102</v>
@@ -3226,2708 +3547,2708 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
+      <c r="C14" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>105</v>
+      <c r="C15" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="C53" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>279</v>
+        <v>385</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>279</v>
+        <v>385</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>301</v>
+        <v>411</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>307</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>308</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>309</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>310</v>
+        <v>422</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>310</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>311</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>314</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>315</v>
+        <v>429</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>105</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5949,10 +6270,10 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="1" sqref="C:C A55"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -5963,7 +6284,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5972,45 +6293,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>322</v>
+        <v>443</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -6018,946 +6339,946 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>279</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>346</v>
+        <v>467</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="12" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="12" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="12" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
-        <v>401</v>
+        <v>522</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
-        <v>402</v>
+        <v>523</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="12" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="12" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="12" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="12" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6979,10 +7300,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C:C B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -6994,75 +7315,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>408</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>413</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>414</v>
+        <v>534</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>416</v>
+        <v>536</v>
       </c>
       <c r="B3" s="14" t="n">
-        <v>20210204001</v>
+        <v>20210202001</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>417</v>
+        <v>537</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -7071,44 +7392,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>426</v>
+        <v>546</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="555">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1377,6 +1377,27 @@
   </si>
   <si>
     <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_new_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_snake</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -1738,14 +1759,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cascadia mono"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Cascadia mono"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1863,6 +1884,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1879,15 +1904,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1978,7 +1999,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -2028,13 +2049,13 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -3439,7 +3460,7 @@
       <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -6267,19 +6288,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,6 +6331,7 @@
       <c r="C2" s="6" t="s">
         <v>447</v>
       </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
@@ -6317,6 +6340,7 @@
       <c r="C3" s="6" t="s">
         <v>447</v>
       </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
@@ -6325,6 +6349,7 @@
       <c r="C4" s="6" t="s">
         <v>447</v>
       </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
@@ -6333,953 +6358,3087 @@
       <c r="C5" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>385</v>
-      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>455</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>456</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>221</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>457</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>109</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="D26" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>76</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>464</v>
+        <v>109</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>78</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>465</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>78</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>89</v>
+        <v>471</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>88</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C39" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>82</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>469</v>
-      </c>
       <c r="B41" s="11" t="s">
-        <v>470</v>
+        <v>74</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>299</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>474</v>
+        <v>89</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
+      <c r="D47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>170</v>
-      </c>
+      <c r="C48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="C49" s="12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>100</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>100</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>483</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>100</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>483</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="12" t="s">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D65" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D75" s="0" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D79" s="0" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D80" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D82" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="C76" s="12" t="s">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D83" s="0" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D87" s="0" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D88" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D89" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="C84" s="12" t="s">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C85" s="12" t="s">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D93" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="12" t="s">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="C88" s="12" t="s">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D95" s="0" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="C89" s="12" t="s">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D96" s="0" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C90" s="12" t="s">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C91" s="12" t="s">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C92" s="12" t="s">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D99" s="0" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="12" t="s">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D101" s="0" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E220" s="7"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="7"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="7"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E230" s="7"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="7"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E234" s="7"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E236" s="7"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E237" s="7"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E240" s="7"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E241" s="7"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E242" s="7"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E250" s="7"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="7"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="7"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E255" s="7"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E256" s="7"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E257" s="7"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E258" s="7"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E259" s="7"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E261" s="7"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E263" s="7"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E264" s="7"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E266" s="7"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="7"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E268" s="7"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E270" s="7"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E271" s="7"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E272" s="7"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E274" s="7"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E275" s="7"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E276" s="7"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E277" s="7"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E278" s="7"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E279" s="7"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E280" s="7"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E281" s="7"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E282" s="7"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E283" s="7"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E284" s="7"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E285" s="7"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E286" s="7"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E287" s="7"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E288" s="7"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E289" s="7"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E290" s="7"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E291" s="7"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E292" s="7"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E293" s="7"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E294" s="7"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E296" s="7"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E297" s="7"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E298" s="7"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E299" s="7"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E300" s="7"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E301" s="7"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E302" s="7"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E303" s="7"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E304" s="7"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E305" s="7"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E306" s="7"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E308" s="7"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E309" s="7"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E310" s="7"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E311" s="7"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E312" s="7"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E313" s="7"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E314" s="7"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E315" s="7"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E316" s="7"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E317" s="7"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E318" s="7"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E320" s="7"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E321" s="7"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E322" s="7"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E323" s="7"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E324" s="7"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E325" s="7"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E326" s="7"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E327" s="7"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E328" s="7"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E329" s="7"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E330" s="7"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E331" s="7"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E332" s="7"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E333" s="7"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E334" s="7"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E335" s="7"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E336" s="7"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E337" s="7"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E338" s="7"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E339" s="7"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E340" s="7"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E341" s="7"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E342" s="7"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E343" s="7"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E344" s="7"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E345" s="7"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E346" s="7"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E347" s="7"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E348" s="7"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E349" s="7"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E350" s="7"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E351" s="7"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E352" s="7"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E354" s="7"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E355" s="7"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E356" s="7"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E357" s="7"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E358" s="7"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E359" s="7"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E360" s="7"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E361" s="7"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E362" s="7"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E363" s="7"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E364" s="7"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E365" s="7"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E366" s="7"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E367" s="7"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E368" s="7"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E369" s="7"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E370" s="7"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E371" s="7"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E372" s="7"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E373" s="7"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E374" s="7"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E375" s="7"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E376" s="7"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E377" s="7"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E378" s="7"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E379" s="7"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E380" s="7"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E381" s="7"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E382" s="7"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E383" s="7"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E384" s="7"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E385" s="7"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E386" s="7"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E387" s="7"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E388" s="7"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E389" s="7"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E390" s="7"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E391" s="7"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E392" s="7"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E393" s="7"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E394" s="7"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E395" s="7"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E396" s="7"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E397" s="7"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E398" s="7"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E399" s="7"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E400" s="7"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E401" s="7"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E402" s="7"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E403" s="7"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E404" s="7"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E405" s="7"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E406" s="7"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E407" s="7"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E408" s="7"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E409" s="7"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E410" s="7"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E411" s="7"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E412" s="7"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E413" s="7"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E414" s="7"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E415" s="7"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E416" s="7"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E417" s="7"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E418" s="7"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E419" s="7"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E420" s="7"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E421" s="7"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E422" s="7"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E423" s="7"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E424" s="7"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E425" s="7"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E426" s="7"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E427" s="7"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E428" s="7"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E429" s="7"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E430" s="7"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E431" s="7"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E432" s="7"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E433" s="7"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E434" s="7"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E435" s="7"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E436" s="7"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E437" s="7"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E438" s="7"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E439" s="7"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E440" s="7"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E441" s="7"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E442" s="7"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E443" s="7"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E444" s="7"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E445" s="7"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E446" s="7"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E447" s="7"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E448" s="7"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E449" s="7"/>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E450" s="7"/>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E451" s="7"/>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E452" s="7"/>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E453" s="7"/>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E454" s="7"/>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E455" s="7"/>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E456" s="7"/>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E457" s="7"/>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E458" s="7"/>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E459" s="7"/>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E460" s="7"/>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E461" s="7"/>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E462" s="7"/>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E463" s="7"/>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E464" s="7"/>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E465" s="7"/>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E466" s="7"/>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E467" s="7"/>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E468" s="7"/>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E469" s="7"/>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E470" s="7"/>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E471" s="7"/>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E472" s="7"/>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E473" s="7"/>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E474" s="7"/>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E475" s="7"/>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E476" s="7"/>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E477" s="7"/>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E478" s="7"/>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E479" s="7"/>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E480" s="7"/>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E481" s="7"/>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E482" s="7"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E483" s="7"/>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E484" s="7"/>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E485" s="7"/>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E486" s="7"/>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E487" s="7"/>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E488" s="7"/>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E489" s="7"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E490" s="7"/>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E491" s="7"/>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E492" s="7"/>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E493" s="7"/>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E494" s="7"/>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E495" s="7"/>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E496" s="7"/>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E497" s="7"/>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E498" s="7"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E499" s="7"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E500" s="7"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E501" s="7"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E502" s="7"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E503" s="7"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E504" s="7"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E505" s="7"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E506" s="7"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E507" s="7"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E508" s="7"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E509" s="7"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E510" s="7"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E511" s="7"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E512" s="7"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E513" s="7"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E514" s="7"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E515" s="7"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E516" s="7"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E517" s="7"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E518" s="7"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E519" s="7"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E520" s="7"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E521" s="7"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E522" s="7"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E523" s="7"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E524" s="7"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E525" s="7"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E526" s="7"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E527" s="7"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E528" s="7"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E529" s="7"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E530" s="7"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E531" s="7"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E532" s="7"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E533" s="7"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E534" s="7"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E535" s="7"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E536" s="7"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E537" s="7"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E538" s="7"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E539" s="7"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E540" s="7"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E541" s="7"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E542" s="7"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E543" s="7"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E544" s="7"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E545" s="7"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E546" s="7"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E547" s="7"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E548" s="7"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E549" s="7"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E550" s="7"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E551" s="7"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E552" s="7"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E553" s="7"/>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E554" s="7"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E555" s="7"/>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E556" s="7"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E557" s="7"/>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E558" s="7"/>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E559" s="7"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E560" s="7"/>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E561" s="7"/>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E562" s="7"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E563" s="7"/>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E564" s="7"/>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E565" s="7"/>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E566" s="7"/>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E567" s="7"/>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E568" s="7"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E569" s="7"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E570" s="7"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E571" s="7"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E572" s="7"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E573" s="7"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E574" s="7"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E575" s="7"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E576" s="7"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E577" s="7"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E578" s="7"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E579" s="7"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E580" s="7"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E581" s="7"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E582" s="7"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E583" s="7"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E584" s="7"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E585" s="7"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E586" s="7"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E587" s="7"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E588" s="7"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E589" s="7"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E590" s="7"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E591" s="7"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E592" s="7"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E593" s="7"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E594" s="7"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E595" s="7"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E596" s="7"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E597" s="7"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E598" s="7"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E599" s="7"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E600" s="7"/>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E601" s="7"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E602" s="7"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E603" s="7"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E604" s="7"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E605" s="7"/>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E606" s="7"/>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E607" s="7"/>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E608" s="7"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E609" s="7"/>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E610" s="7"/>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E611" s="7"/>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E612" s="7"/>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E613" s="7"/>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E614" s="7"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E615" s="7"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E616" s="7"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E617" s="7"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E618" s="7"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E619" s="7"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E620" s="7"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E621" s="7"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E622" s="7"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E623" s="7"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E624" s="7"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E625" s="7"/>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E626" s="7"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E627" s="7"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E628" s="7"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E629" s="7"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E630" s="7"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E631" s="7"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E632" s="7"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E633" s="7"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E634" s="7"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E635" s="7"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E636" s="7"/>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E637" s="7"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E638" s="7"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E639" s="7"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E640" s="7"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E641" s="7"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E642" s="7"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E643" s="7"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E644" s="7"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E645" s="7"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E646" s="7"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E647" s="7"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E648" s="7"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E649" s="7"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E650" s="7"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E651" s="7"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E652" s="7"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E653" s="7"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E654" s="7"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E655" s="7"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E656" s="7"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E657" s="7"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E658" s="7"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E659" s="7"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E660" s="7"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E661" s="7"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E662" s="7"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E663" s="7"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E664" s="7"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E665" s="7"/>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E666" s="7"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E667" s="7"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E668" s="7"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E669" s="7"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E670" s="7"/>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E671" s="7"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E672" s="7"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E673" s="7"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E674" s="7"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E675" s="7"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E676" s="7"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E677" s="7"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E678" s="7"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E679" s="7"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E680" s="7"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E681" s="7"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E682" s="7"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E683" s="7"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E684" s="7"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E685" s="7"/>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E686" s="7"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E687" s="7"/>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E688" s="7"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E689" s="7"/>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E690" s="7"/>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E691" s="7"/>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E692" s="7"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E693" s="7"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E694" s="7"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E695" s="7"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E696" s="7"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E697" s="7"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E698" s="7"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E699" s="7"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E700" s="7"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E701" s="7"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E702" s="7"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E703" s="7"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E704" s="7"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E705" s="7"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E706" s="7"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E707" s="7"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E708" s="7"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E709" s="7"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E710" s="7"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E711" s="7"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E712" s="7"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E713" s="7"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E714" s="7"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E715" s="7"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E716" s="7"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E717" s="7"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E718" s="7"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E719" s="7"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E720" s="7"/>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E721" s="7"/>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E722" s="7"/>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E723" s="7"/>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E724" s="7"/>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E725" s="7"/>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E726" s="7"/>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E727" s="7"/>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E728" s="7"/>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E729" s="7"/>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E730" s="7"/>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E731" s="7"/>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E732" s="7"/>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E733" s="7"/>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E734" s="7"/>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E735" s="7"/>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E736" s="7"/>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E737" s="7"/>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E738" s="7"/>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E739" s="7"/>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E740" s="7"/>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E741" s="7"/>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E742" s="7"/>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E743" s="7"/>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E744" s="7"/>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E745" s="7"/>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E746" s="7"/>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E747" s="7"/>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E748" s="7"/>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E749" s="7"/>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E750" s="7"/>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E751" s="7"/>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E752" s="7"/>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E753" s="7"/>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E754" s="7"/>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E755" s="7"/>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E756" s="7"/>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E757" s="7"/>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E758" s="7"/>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E759" s="7"/>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E760" s="7"/>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E761" s="7"/>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E762" s="7"/>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E763" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7303,7 +9462,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -7314,122 +9473,122 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>528</v>
+      <c r="A1" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="14" t="n">
+      <c r="A3" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>20210202001</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="13"/>
+      <c r="A4" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>540</v>
+      <c r="A5" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="436">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -248,805 +248,808 @@
     <t xml:space="preserve">q21.hint</t>
   </si>
   <si>
+    <t xml:space="preserve">birth_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_weeks_months_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmy_ago_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_member_move_in_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_district_census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_from_census_extid_not_possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_extid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('id_candidate')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndkpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ynpna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking_a_walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">church_mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching_for_a_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_with_friends_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_bed_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friends_relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before_sunrise_activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite_outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss_limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronic_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injuries_from_an_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental_health_disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epilepsy_(convulsions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart_problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amputated/atrophied_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_of_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family_or_friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal_drug_vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outside_district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protestant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atheist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptp_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 1 dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 2 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, already took more than 3 doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More_than_two_weeks_ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_no_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant didn’t have malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment was not deemed necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaria_test_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_where_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emigrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone_new_in_the_household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_recent_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery_of_a_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joints_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chills-shivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss_smell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neither_alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relation_to_hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husband_wife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_daughterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother_sisterinlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle_aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandson_granddaughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stepchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adopted_son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cousin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nephew_niece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrelated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_awake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h before sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h before sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunrise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4h after sunset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4h after sunset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_indoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraceptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antihistamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiretrovirals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_mental_illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-fungal_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment_for_blood_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional_medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuesList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSessionVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned by household form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_member_snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_status_hh_new_member_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent_return_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_weeks_months_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmy_ago_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_member_move_in_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'in_district')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_district_census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move_from_census_extid_not_possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign_extid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('id_candidate')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yndkpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ynpna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking_a_walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">church_mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searching_for_a_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out_with_friends_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_bed_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friends_relatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">before_sunrise_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_occur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite_outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronic_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injuries_from_an_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental_health_disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy_(convulsions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart_problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amputated/atrophied_leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_of_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family_or_friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal_drug_vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community_leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trusted_elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_midwife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside_district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protestant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian undetermined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atheist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptp_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 1 dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 2 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, already took more than 3 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More_than_two_weeks_ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_no_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant didn’t have malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment was not deemed necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malaria_test_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_where_now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emigrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">january</t>
-  </si>
-  <si>
-    <t xml:space="preserve">february</t>
-  </si>
-  <si>
-    <t xml:space="preserve">march</t>
-  </si>
-  <si>
-    <t xml:space="preserve">april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">june</t>
-  </si>
-  <si>
-    <t xml:space="preserve">july</t>
-  </si>
-  <si>
-    <t xml:space="preserve">august</t>
-  </si>
-  <si>
-    <t xml:space="preserve">september</t>
-  </si>
-  <si>
-    <t xml:space="preserve">october</t>
-  </si>
-  <si>
-    <t xml:space="preserve">november</t>
-  </si>
-  <si>
-    <t xml:space="preserve">december</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someone_new_in_the_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_recent_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery_of_a_baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vomiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joints_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dizziness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chills-shivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss_smell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neither_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relation_to_hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">husband_wife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son_daughterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother_sisterinlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncle_aunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandson_granddaughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stepchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adopted_son_daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cousin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nephew_niece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrelated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non_resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_awake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h before sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h before sunrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunrise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4h after sunset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;4h after sunset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_indoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraceptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antihistamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiretrovirals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibiotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_mental_illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-fungal_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment_for_blood_pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional_medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valuesList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSessionVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigned by household form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member_absent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member_exit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member_questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_member_snake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_status_hh_new_member_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absent Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_date</t>
   </si>
   <si>
     <t xml:space="preserve">absent_return_integer</t>
@@ -1639,7 +1642,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1690,12 +1693,12 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -3139,7 +3142,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -5969,16 +5972,16 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="10.5"/>
   </cols>
@@ -6262,13 +6265,13 @@
         <v>340</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>32</v>
@@ -6277,7 +6280,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>20</v>
@@ -6289,7 +6292,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>36</v>
@@ -6313,7 +6316,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>228</v>
@@ -6328,16 +6331,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>36</v>
@@ -6349,16 +6352,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>32</v>
@@ -6367,7 +6370,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>20</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>20</v>
@@ -6391,7 +6394,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>22</v>
@@ -6472,10 +6475,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>20</v>
@@ -6487,7 +6490,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>36</v>
@@ -6499,10 +6502,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>32</v>
@@ -6511,7 +6514,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>36</v>
@@ -6523,7 +6526,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>20</v>
@@ -6535,7 +6538,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>32</v>
@@ -6544,7 +6547,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>36</v>
@@ -6556,7 +6559,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>36</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>27</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>20</v>
@@ -6589,10 +6592,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>20</v>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>20</v>
@@ -6616,7 +6619,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>20</v>
@@ -6628,16 +6631,16 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>20</v>
@@ -6649,25 +6652,25 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>20</v>
@@ -6679,7 +6682,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>20</v>
@@ -6703,19 +6706,19 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>36</v>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>36</v>
@@ -6739,7 +6742,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>27</v>
@@ -6748,7 +6751,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>20</v>
@@ -6760,7 +6763,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>36</v>
@@ -6772,7 +6775,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>27</v>
@@ -6781,7 +6784,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>36</v>
@@ -6793,7 +6796,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>27</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>20</v>
@@ -6814,7 +6817,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>36</v>
@@ -6826,7 +6829,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>27</v>
@@ -6835,7 +6838,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>20</v>
@@ -6847,7 +6850,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>20</v>
@@ -6859,7 +6862,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>20</v>
@@ -6871,7 +6874,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>20</v>
@@ -6883,7 +6886,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>36</v>
@@ -6895,7 +6898,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>36</v>
@@ -6907,7 +6910,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>20</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>20</v>
@@ -6931,7 +6934,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>20</v>
@@ -6943,7 +6946,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>20</v>
@@ -6955,7 +6958,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>20</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>20</v>
@@ -6979,7 +6982,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>20</v>
@@ -6991,7 +6994,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>20</v>
@@ -7003,7 +7006,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>32</v>
@@ -7012,7 +7015,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>20</v>
@@ -7036,7 +7039,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>20</v>
@@ -7048,7 +7051,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>36</v>
@@ -7060,7 +7063,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>20</v>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>20</v>
@@ -7084,7 +7087,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>36</v>
@@ -7096,7 +7099,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>20</v>
@@ -7120,7 +7123,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>20</v>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>32</v>
@@ -9137,11 +9140,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9153,75 +9156,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>20210204001</v>
+        <v>20210206001</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -9230,44 +9233,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_member_new.xlsx
+++ b/odkx/forms/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="444">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -77,6 +77,12 @@
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
+    <t xml:space="preserve">display.constraint_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hideInContents</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -113,25 +119,40 @@
     <t xml:space="preserve">q13</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || !/\p{N}/u.test(data('name'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">surname</t>
   </si>
   <si>
     <t xml:space="preserve">q14</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household') || !/\p{N}/u.test(data('surname'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">q15</t>
   </si>
   <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer</t>
   </si>
   <si>
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
+    <t xml:space="preserve">end if</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple</t>
@@ -143,27 +164,27 @@
     <t xml:space="preserve">dob_day_dk</t>
   </si>
   <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
-  </si>
-  <si>
     <t xml:space="preserve">dob_month_dk</t>
   </si>
   <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">dob_year</t>
   </si>
   <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
-  </si>
-  <si>
     <t xml:space="preserve">dob_year_dk</t>
   </si>
   <si>
@@ -188,9 +209,6 @@
     <t xml:space="preserve">dob_enter_age_approx</t>
   </si>
   <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(data('dob_day_dk'), 'dk')</t>
   </si>
   <si>
@@ -227,7 +245,13 @@
     <t xml:space="preserve">q17</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || !/\p{N}/u.test(data('name'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">q18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || !/\p{N}/u.test(data('surname'))</t>
   </si>
   <si>
     <t xml:space="preserve">q19</t>
@@ -1642,7 +1666,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1690,15 +1714,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -1758,17 +1782,23 @@
       <c r="N1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1779,7 +1809,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1797,16 +1827,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1819,10 +1849,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1839,12 +1869,12 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1857,56 +1887,68 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="N7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="N8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -1918,43 +1960,31 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -1967,42 +1997,39 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -2015,27 +2042,22 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L14" s="1" t="n">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,15 +2065,13 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2060,10 +2080,10 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2"/>
@@ -2080,58 +2100,59 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="0" t="s">
-        <v>49</v>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2140,16 +2161,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2158,12 +2184,17 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2171,25 +2202,44 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="0" t="s">
-        <v>49</v>
+      <c r="I22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2197,107 +2247,123 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="P24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>54</v>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
+      <c r="M26" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="N28" s="0" t="s">
-        <v>63</v>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
+      <c r="A29" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2305,17 +2371,12 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2323,129 +2384,92 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="C31" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="3"/>
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="C34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
+      <c r="M34" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="A35" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
-        <v>36</v>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2454,44 +2478,39 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="N37" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2499,47 +2518,35 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2547,80 +2554,90 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
+      <c r="N41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="0" t="s">
-        <v>49</v>
+      <c r="N42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2630,11 +2647,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2645,51 +2664,85 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>55</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
+      <c r="P48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>56</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2697,46 +2750,62 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2746,40 +2815,38 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
+      <c r="C53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
+      <c r="P53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>74</v>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2787,62 +2854,62 @@
       <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2850,37 +2917,40 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
+      <c r="P58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2888,78 +2958,82 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
+      <c r="M60" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="N61" s="0" t="s">
-        <v>90</v>
+      <c r="L61" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
+      <c r="P62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>54</v>
+      <c r="A63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2967,15 +3041,12 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="A64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2983,33 +3054,24 @@
       <c r="L64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="C65" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
+      <c r="M65" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>94</v>
+      <c r="A66" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3018,15 +3080,12 @@
       <c r="L66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="A67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3034,33 +3093,25 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="C68" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
+      <c r="M68" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="A69" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3068,57 +3119,402 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="0" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="4"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="N79" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3142,7 +3538,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3151,2807 +3547,2807 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="C51" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B226" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="C226" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5976,19 +6372,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -5997,48 +6393,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>1</v>
@@ -6046,1099 +6442,1099 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D39" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="12" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="13" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="13" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="13" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="13" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="13" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="13" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="13" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="13" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="13" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="13" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="13" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="13" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="13" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="13" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="13" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="13" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="13" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="13" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="13" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="13" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="13" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="13" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="13" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="13" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="13" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="13" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="13" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="13" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="13" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="13" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="13" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="13" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E103" s="6"/>
     </row>
@@ -9140,11 +9536,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9156,42 +9552,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20210206001</v>
@@ -9200,31 +9596,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -9233,44 +9629,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
